--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="824">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T08:17:45+00:00</t>
+    <t>2025-10-21T12:05:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1458,7 +1458,7 @@
     <t>PI</t>
   </si>
   <si>
-    <t>Hospital assigned patient identifier | IPP; Dans le cadre de ce volet, représente l'Identifiant local de l’usager au sein de la structure. Cet identifiant est obtenu par la concaténation du type d'identifiant national de personne (provenant de la nomenclature TRE_G08-TypeIdentifiantPersonne), de l'identifiant de la structure (numéro FINESS), de l'identifiant local de l’usager au sein de la structure (identifiantLocalUsagerESSMS) : 3+FINESS/identifiantLocalUsagerESSMS</t>
+    <t>Hospital assigned patient identifier | IPP; Dans le cadre de ce volet, représente l'Identifiant local de l’usager au sein de la structure.</t>
   </si>
   <si>
     <t>identifiantLocalUsagerESSMS</t>
@@ -1489,6 +1489,9 @@
   </si>
   <si>
     <t>Patient.identifier:PI.system</t>
+  </si>
+  <si>
+    <t>https://identifiant-medicosocial-localusager.cnsa.fr</t>
   </si>
   <si>
     <t>Patient.identifier:PI.value</t>
@@ -11892,7 +11895,7 @@
         <v>82</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>82</v>
+        <v>470</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>403</v>
@@ -11966,7 +11969,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>408</v>
@@ -12086,7 +12089,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>417</v>
@@ -12204,7 +12207,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>424</v>
@@ -12324,13 +12327,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>354</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>82</v>
@@ -12355,7 +12358,7 @@
         <v>355</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>357</v>
@@ -12446,7 +12449,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>370</v>
@@ -12564,7 +12567,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>372</v>
@@ -12684,7 +12687,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>374</v>
@@ -12806,7 +12809,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>385</v>
@@ -12854,7 +12857,7 @@
         <v>82</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>82</v>
@@ -12928,7 +12931,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>397</v>
@@ -13050,7 +13053,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>408</v>
@@ -13170,7 +13173,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>417</v>
@@ -13288,7 +13291,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>424</v>
@@ -13408,13 +13411,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>354</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>82</v>
@@ -13439,7 +13442,7 @@
         <v>355</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>357</v>
@@ -13510,7 +13513,7 @@
         <v>103</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>361</v>
@@ -13530,7 +13533,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>370</v>
@@ -13648,7 +13651,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>372</v>
@@ -13768,7 +13771,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>374</v>
@@ -13890,7 +13893,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>385</v>
@@ -13938,7 +13941,7 @@
         <v>82</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>82</v>
@@ -13959,7 +13962,7 @@
         <v>392</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -14012,7 +14015,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>397</v>
@@ -14134,7 +14137,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>408</v>
@@ -14254,7 +14257,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>417</v>
@@ -14372,7 +14375,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>424</v>
@@ -14398,7 +14401,7 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>426</v>
@@ -14492,10 +14495,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14518,70 +14521,70 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14599,13 +14602,13 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14616,10 +14619,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14642,19 +14645,19 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14691,7 +14694,7 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14701,7 +14704,7 @@
         <v>118</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14719,16 +14722,16 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>82</v>
@@ -14736,13 +14739,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>82</v>
@@ -14764,19 +14767,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14825,7 +14828,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14843,16 +14846,16 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>82</v>
@@ -14860,10 +14863,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14978,10 +14981,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15098,10 +15101,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15127,16 +15130,16 @@
         <v>171</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15164,10 +15167,10 @@
         <v>261</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -15185,7 +15188,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15212,7 +15215,7 @@
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15220,10 +15223,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15249,13 +15252,13 @@
         <v>105</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>282</v>
@@ -15307,7 +15310,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15334,7 +15337,7 @@
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15342,14 +15345,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15371,13 +15374,13 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15427,7 +15430,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15442,10 +15445,10 @@
         <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>82</v>
@@ -15454,7 +15457,7 @@
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15462,14 +15465,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15491,13 +15494,13 @@
         <v>105</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15547,7 +15550,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15562,10 +15565,10 @@
         <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>82</v>
@@ -15574,7 +15577,7 @@
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15582,10 +15585,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15611,10 +15614,10 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15665,7 +15668,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15683,7 +15686,7 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>82</v>
@@ -15692,7 +15695,7 @@
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15700,10 +15703,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15729,10 +15732,10 @@
         <v>105</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15783,7 +15786,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15801,7 +15804,7 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
@@ -15810,7 +15813,7 @@
         <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15818,10 +15821,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15847,14 +15850,14 @@
         <v>341</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15903,7 +15906,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15930,7 +15933,7 @@
         <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>82</v>
@@ -15938,13 +15941,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>82</v>
@@ -15966,19 +15969,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -16027,7 +16030,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -16045,16 +16048,16 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>82</v>
@@ -16062,10 +16065,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16180,10 +16183,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16300,13 +16303,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>82</v>
@@ -16328,13 +16331,13 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16400,7 +16403,7 @@
         <v>120</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
@@ -16420,10 +16423,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16449,16 +16452,16 @@
         <v>171</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16486,10 +16489,10 @@
         <v>261</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16507,7 +16510,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16534,7 +16537,7 @@
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16542,10 +16545,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16571,13 +16574,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>282</v>
@@ -16629,7 +16632,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16656,7 +16659,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16664,14 +16667,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16693,13 +16696,13 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16749,7 +16752,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16764,10 +16767,10 @@
         <v>103</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16776,7 +16779,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16784,14 +16787,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16813,13 +16816,13 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16869,7 +16872,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16884,10 +16887,10 @@
         <v>103</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
@@ -16896,7 +16899,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16904,10 +16907,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16933,10 +16936,10 @@
         <v>105</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16987,7 +16990,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -17002,10 +17005,10 @@
         <v>103</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
@@ -17014,7 +17017,7 @@
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17022,10 +17025,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17051,10 +17054,10 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17105,7 +17108,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17123,7 +17126,7 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -17132,7 +17135,7 @@
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>82</v>
@@ -17140,10 +17143,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17169,14 +17172,14 @@
         <v>341</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17225,7 +17228,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17252,7 +17255,7 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -17260,10 +17263,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17286,19 +17289,19 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -17347,7 +17350,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17359,13 +17362,13 @@
         <v>204</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>82</v>
@@ -17374,7 +17377,7 @@
         <v>82</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AP120" t="s" s="2">
         <v>82</v>
@@ -17382,10 +17385,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17411,16 +17414,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17449,7 +17452,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17467,7 +17470,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17482,19 +17485,19 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17502,10 +17505,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17528,19 +17531,19 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17589,7 +17592,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17604,30 +17607,30 @@
         <v>103</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17653,10 +17656,10 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17742,10 +17745,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17858,13 +17861,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B125" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="B125" t="s" s="2">
-        <v>640</v>
-      </c>
       <c r="C125" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>82</v>
@@ -17886,13 +17889,13 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17958,7 +17961,7 @@
         <v>120</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>82</v>
@@ -17978,10 +17981,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18004,13 +18007,13 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18061,7 +18064,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18096,10 +18099,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18122,19 +18125,19 @@
         <v>92</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18183,7 +18186,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18201,7 +18204,7 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>109</v>
@@ -18210,7 +18213,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18218,10 +18221,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18256,7 +18259,7 @@
         <v>240</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18305,7 +18308,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18340,10 +18343,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18369,14 +18372,14 @@
         <v>386</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18405,7 +18408,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18423,7 +18426,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18441,16 +18444,16 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18458,10 +18461,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18484,19 +18487,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18545,7 +18548,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18563,7 +18566,7 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>109</v>
@@ -18572,7 +18575,7 @@
         <v>82</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AP130" t="s" s="2">
         <v>82</v>
@@ -18580,10 +18583,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18606,19 +18609,19 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18667,7 +18670,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18685,7 +18688,7 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>109</v>
@@ -18694,7 +18697,7 @@
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18702,10 +18705,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18728,19 +18731,19 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18789,7 +18792,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18801,13 +18804,13 @@
         <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>109</v>
@@ -18824,10 +18827,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18942,10 +18945,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19058,13 +19061,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="B135" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="B135" t="s" s="2">
-        <v>694</v>
-      </c>
       <c r="C135" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19086,13 +19089,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19178,13 +19181,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>82</v>
@@ -19206,13 +19209,13 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -19298,14 +19301,14 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19327,10 +19330,10 @@
         <v>112</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>115</v>
@@ -19385,7 +19388,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19420,10 +19423,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19449,14 +19452,14 @@
         <v>386</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19484,16 +19487,16 @@
         <v>153</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AC138" s="2"/>
       <c r="AD138" t="s" s="2">
@@ -19503,7 +19506,7 @@
         <v>118</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19521,7 +19524,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19530,7 +19533,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19538,13 +19541,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>82</v>
@@ -19569,14 +19572,14 @@
         <v>386</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19605,7 +19608,7 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -19623,7 +19626,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19641,7 +19644,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19650,7 +19653,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19658,13 +19661,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>82</v>
@@ -19689,14 +19692,14 @@
         <v>386</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19725,7 +19728,7 @@
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19743,7 +19746,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19761,7 +19764,7 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19770,7 +19773,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19778,10 +19781,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19804,19 +19807,19 @@
         <v>82</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19865,7 +19868,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19883,7 +19886,7 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -19892,7 +19895,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -19900,10 +19903,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19926,19 +19929,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19987,7 +19990,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19999,13 +20002,13 @@
         <v>204</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20014,7 +20017,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20022,10 +20025,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20048,17 +20051,17 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20107,7 +20110,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20125,7 +20128,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>109</v>
@@ -20134,7 +20137,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20142,10 +20145,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20171,14 +20174,14 @@
         <v>171</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20206,10 +20209,10 @@
         <v>261</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -20227,7 +20230,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20245,7 +20248,7 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>109</v>
@@ -20254,7 +20257,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20262,10 +20265,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20291,14 +20294,14 @@
         <v>425</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20347,7 +20350,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20356,7 +20359,7 @@
         <v>91</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>103</v>
@@ -20365,7 +20368,7 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>109</v>
@@ -20374,7 +20377,7 @@
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20382,10 +20385,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20411,10 +20414,10 @@
         <v>341</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20465,7 +20468,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20483,7 +20486,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20500,10 +20503,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20526,19 +20529,19 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20587,7 +20590,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20605,10 +20608,10 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20622,10 +20625,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20740,10 +20743,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20860,14 +20863,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20889,10 +20892,10 @@
         <v>112</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>115</v>
@@ -20947,7 +20950,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20982,10 +20985,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21011,16 +21014,16 @@
         <v>386</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21069,7 +21072,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>91</v>
@@ -21087,16 +21090,16 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21104,10 +21107,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21130,19 +21133,19 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21191,7 +21194,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21209,16 +21212,16 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21226,14 +21229,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21252,16 +21255,16 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -21311,7 +21314,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21329,7 +21332,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21338,7 +21341,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21346,10 +21349,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21372,19 +21375,19 @@
         <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21433,7 +21436,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21451,10 +21454,10 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -21468,10 +21471,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21494,19 +21497,19 @@
         <v>92</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21555,7 +21558,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21573,7 +21576,7 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>109</v>
@@ -21590,10 +21593,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21708,10 +21711,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21828,14 +21831,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21857,10 +21860,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21915,7 +21918,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21950,10 +21953,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21976,16 +21979,16 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22035,7 +22038,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22062,7 +22065,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22070,10 +22073,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22099,10 +22102,10 @@
         <v>171</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22132,10 +22135,10 @@
         <v>261</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>82</v>
@@ -22153,7 +22156,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>91</v>
@@ -22171,7 +22174,7 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>109</v>

--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T12:05:40+00:00</t>
+    <t>2025-10-22T08:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1491,7 +1491,7 @@
     <t>Patient.identifier:PI.system</t>
   </si>
   <si>
-    <t>https://identifiant-medicosocial-localusager.cnsa.fr</t>
+    <t>https://identifiant-medicosocial-localusager.esante.gouv.fr</t>
   </si>
   <si>
     <t>Patient.identifier:PI.value</t>

--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T08:03:07+00:00</t>
+    <t>2025-10-22T10:16:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T10:16:49+00:00</t>
+    <t>2025-10-23T08:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
